--- a/loadCaseVariables_n.xlsx
+++ b/loadCaseVariables_n.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\icnas3.cc.ic.ac.uk\bcl15\Desktop\twistInfidel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036E1ADF-32C0-492D-A4E9-2DA146BB7CBD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290AEF6F-4D55-41AD-BBF3-6F83792229F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10185" yWindow="465" windowWidth="12795" windowHeight="14580" xr2:uid="{960D66B6-E192-4D46-95EA-6D1BF3B83417}"/>
   </bookViews>
@@ -506,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5237DA-3CE4-0A4A-BA84-918FD134F023}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>42.3</v>
+        <v>46</v>
       </c>
       <c r="F2">
         <v>999</v>
@@ -691,15 +691,13 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>758</v>
+        <v>227.4</v>
       </c>
       <c r="D10">
-        <f>D3</f>
-        <v>20.8</v>
+        <v>42</v>
       </c>
       <c r="E10">
-        <f>E3</f>
-        <v>44.3</v>
+        <v>44</v>
       </c>
       <c r="F10">
         <v>999</v>
